--- a/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_1.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankNeg_sample100_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8274DBCC-2D47-BA49-B36F-AD9022A34F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E3A492-0ABA-E44D-BE6C-19940E904F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="808">
   <si>
     <t>label</t>
   </si>
@@ -2142,6 +2142,309 @@
   </si>
   <si>
     <t>0.6060760021209717</t>
+  </si>
+  <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p4714_s6018.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10586_s15542.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1172_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3598_s4574.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7967_s10651.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1330_s12038.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2667_s3432.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p336_s610.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/058_45.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0370_c3s1_087642_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7129_s9450.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/995_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0125001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7041_s9318.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/203_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6040.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10845_s14760.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/53_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p208_s404.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/875_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3708_s4672.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10287_s12840.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/176_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p5872_s7585.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0485_c5s1_128920_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1400_s12162.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/37_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10150_s14249.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1363_c2s3_036307_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5717_s7365.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5916_s7655.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0042001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1211_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10671_s14715.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9040_s17925.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9971_s16847.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2605_s3281.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c2s2_019887_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4389_s5597.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10719_s14607.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4728_s6039.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3712_s4584.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p817_s1500.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/604_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p621_s1168.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1005_c6s2_123643_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/479_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9688_s16314.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4696.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/935_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10997_s14453.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1530_s12372.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9989_s16889.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0068004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2597_s3258.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2628_s3332.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/146_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9730_s16420.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5482_s7021.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10396_s14348.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p11344_s13686.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9329_s15737.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1249_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3205_s4111.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/164_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p477_s872.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2450_s2941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2021_s2244.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0847_c1s4_047056_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p7504_s10018.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7115_s9426.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1119_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0700_c4s3_067829_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16536.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7098_s9401.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10748_s14643.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10534_s15471.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1104_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/684_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4617_s5891.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0112002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9794_s16540.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9963_s16828.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5301_s6784.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2730_s3572.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p4374_s5569.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0544001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/576_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10865_s14784.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1458_c5s3_058640_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p2453_s2949.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/092_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0195_c6s1_037801_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10090_s15250.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0949001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9898_s17058.jpg</t>
   </si>
 </sst>
 </file>
@@ -2488,11 +2791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2502,7 +2805,7 @@
     <col min="6" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,8 +2845,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2583,8 +2889,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2624,8 +2933,11 @@
       <c r="M3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2665,8 +2977,11 @@
       <c r="M4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2706,8 +3021,11 @@
       <c r="M5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2747,8 +3065,11 @@
       <c r="M6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2788,8 +3109,11 @@
       <c r="M7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2829,8 +3153,11 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2870,8 +3197,11 @@
       <c r="M9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2911,8 +3241,11 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2952,8 +3285,11 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2993,8 +3329,11 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3034,8 +3373,11 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3075,8 +3417,11 @@
       <c r="M14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3116,8 +3461,11 @@
       <c r="M15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3157,8 +3505,11 @@
       <c r="M16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3198,8 +3549,11 @@
       <c r="M17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3239,8 +3593,11 @@
       <c r="M18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3280,8 +3637,11 @@
       <c r="M19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3321,8 +3681,11 @@
       <c r="M20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3362,8 +3725,11 @@
       <c r="M21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3403,8 +3769,11 @@
       <c r="M22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3444,8 +3813,11 @@
       <c r="M23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3485,8 +3857,11 @@
       <c r="M24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3526,8 +3901,11 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3567,8 +3945,11 @@
       <c r="M26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3608,8 +3989,11 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3649,8 +4033,11 @@
       <c r="M28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3690,8 +4077,11 @@
       <c r="M29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3731,8 +4121,11 @@
       <c r="M30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3772,8 +4165,11 @@
       <c r="M31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3813,8 +4209,11 @@
       <c r="M32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3854,8 +4253,11 @@
       <c r="M33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3895,8 +4297,11 @@
       <c r="M34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3936,8 +4341,11 @@
       <c r="M35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3977,8 +4385,11 @@
       <c r="M36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4018,8 +4429,11 @@
       <c r="M37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4059,8 +4473,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4100,8 +4517,11 @@
       <c r="M39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4141,8 +4561,11 @@
       <c r="M40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4182,8 +4605,11 @@
       <c r="M41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4223,8 +4649,11 @@
       <c r="M42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4264,8 +4693,11 @@
       <c r="M43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>315</v>
       </c>
@@ -4305,8 +4737,11 @@
       <c r="M44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>315</v>
       </c>
@@ -4346,8 +4781,11 @@
       <c r="M45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4387,8 +4825,11 @@
       <c r="M46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4428,8 +4869,11 @@
       <c r="M47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4469,8 +4913,11 @@
       <c r="M48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4510,8 +4957,11 @@
       <c r="M49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -4551,8 +5001,11 @@
       <c r="M50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4592,8 +5045,11 @@
       <c r="M51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4633,8 +5089,11 @@
       <c r="M52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4674,8 +5133,11 @@
       <c r="M53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4715,8 +5177,11 @@
       <c r="M54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4756,8 +5221,11 @@
       <c r="M55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4797,8 +5265,11 @@
       <c r="M56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4838,8 +5309,11 @@
       <c r="M57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4879,8 +5353,11 @@
       <c r="M58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4920,8 +5397,11 @@
       <c r="M59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4961,8 +5441,11 @@
       <c r="M60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -5002,8 +5485,11 @@
       <c r="M61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -5043,8 +5529,11 @@
       <c r="M62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5084,8 +5573,11 @@
       <c r="M63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5125,8 +5617,11 @@
       <c r="M64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5166,8 +5661,11 @@
       <c r="M65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5207,8 +5705,11 @@
       <c r="M66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5248,8 +5749,11 @@
       <c r="M67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -5289,8 +5793,11 @@
       <c r="M68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5330,8 +5837,11 @@
       <c r="M69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -5371,8 +5881,11 @@
       <c r="M70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5412,8 +5925,11 @@
       <c r="M71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5453,8 +5969,11 @@
       <c r="M72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5494,8 +6013,11 @@
       <c r="M73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5535,8 +6057,11 @@
       <c r="M74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5576,8 +6101,11 @@
       <c r="M75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5617,8 +6145,11 @@
       <c r="M76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5658,8 +6189,11 @@
       <c r="M77" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5699,8 +6233,11 @@
       <c r="M78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5740,8 +6277,11 @@
       <c r="M79" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5781,8 +6321,11 @@
       <c r="M80" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5822,8 +6365,11 @@
       <c r="M81" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5863,8 +6409,11 @@
       <c r="M82" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5904,8 +6453,11 @@
       <c r="M83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5945,8 +6497,11 @@
       <c r="M84" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5986,8 +6541,11 @@
       <c r="M85" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -6027,8 +6585,11 @@
       <c r="M86" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -6068,8 +6629,11 @@
       <c r="M87" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>315</v>
       </c>
@@ -6109,8 +6673,11 @@
       <c r="M88" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6150,8 +6717,11 @@
       <c r="M89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6191,8 +6761,11 @@
       <c r="M90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6232,8 +6805,11 @@
       <c r="M91" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6273,8 +6849,11 @@
       <c r="M92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6314,8 +6893,11 @@
       <c r="M93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6355,8 +6937,11 @@
       <c r="M94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>315</v>
       </c>
@@ -6396,8 +6981,11 @@
       <c r="M95" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6437,8 +7025,11 @@
       <c r="M96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -6478,8 +7069,11 @@
       <c r="M97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6519,8 +7113,11 @@
       <c r="M98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6560,8 +7157,11 @@
       <c r="M99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6601,8 +7201,11 @@
       <c r="M100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6641,6 +7244,9 @@
       </c>
       <c r="M101" t="s">
         <v>24</v>
+      </c>
+      <c r="N101" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
